--- a/SAE_3_01/fichiers genere/S5AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFA.xlsx
@@ -5092,10 +5092,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -5112,10 +5120,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -6883,10 +6899,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -6903,10 +6927,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8674,9 +8706,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8694,8 +8734,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -8714,10 +8762,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12256,8 +12312,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -12276,9 +12340,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -12296,9 +12372,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12316,8 +12400,16 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
@@ -12336,9 +12428,21 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -12356,10 +12460,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14047,9 +14159,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -14067,9 +14187,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFA.xlsx
@@ -12374,15 +12374,15 @@
     <row r="37">
       <c r="A37" s="28" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -12402,7 +12402,7 @@
     <row r="38">
       <c r="A38" s="28" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B38" s="28" t="inlineStr">
@@ -12410,7 +12410,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -12430,20 +12434,16 @@
     <row r="39">
       <c r="A39" s="28" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
-      <c r="B39" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D39" s="28" t="n"/>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="n"/>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -12460,18 +12460,10 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -14187,17 +14179,9 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFA.xlsx
@@ -3276,17 +3276,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3304,17 +3296,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3332,17 +3316,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3360,18 +3336,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5067,21 +5035,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5099,21 +5055,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5131,22 +5075,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5163,21 +5095,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -5195,21 +5115,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5227,18 +5135,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6894,17 +6794,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6922,17 +6814,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6950,17 +6834,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6978,18 +6854,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8685,16 +8553,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -8713,17 +8573,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8741,17 +8593,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -8769,17 +8613,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -8797,17 +8633,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8825,17 +8653,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -8853,17 +8673,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8881,17 +8693,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -10508,17 +10312,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -10536,17 +10332,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10564,17 +10352,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12291,18 +12071,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12319,18 +12091,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12347,18 +12111,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12375,18 +12131,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -12403,18 +12151,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12431,18 +12171,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12459,18 +12191,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -12487,18 +12211,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -12515,18 +12231,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -12543,18 +12251,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -14130,17 +13830,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -14158,17 +13850,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -14186,17 +13870,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15913,21 +15589,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15945,21 +15609,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17696,16 +17348,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17724,16 +17368,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -17752,16 +17388,8 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -17780,16 +17408,8 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -17808,16 +17428,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -19495,17 +19107,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19523,17 +19127,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19551,17 +19147,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -19579,17 +19167,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -21286,17 +20866,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21314,18 +20886,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21342,17 +20906,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21370,18 +20926,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -23077,17 +22625,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -23105,17 +22645,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -23133,22 +22665,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -23165,18 +22685,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -24872,17 +24384,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24900,18 +24404,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -24928,18 +24424,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26655,21 +26143,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26687,21 +26163,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-09</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26719,18 +26183,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-16</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26747,18 +26203,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFA.xlsx
@@ -3276,9 +3276,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -3296,9 +3304,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3316,10 +3332,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5035,8 +5059,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -5055,9 +5087,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5075,8 +5119,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -5095,9 +5147,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -5115,10 +5179,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -6794,9 +6866,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -6814,9 +6894,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6834,9 +6922,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6854,7 +6950,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -8553,9 +8653,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -8573,9 +8681,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -8593,9 +8709,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10312,9 +10436,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -10332,9 +10464,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -10352,9 +10492,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -12071,10 +12219,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12091,10 +12247,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12111,10 +12275,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12131,10 +12303,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -13830,9 +14010,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -13850,9 +14038,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -13870,9 +14066,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15589,8 +15793,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -15609,8 +15821,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -17348,8 +17568,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17368,8 +17596,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -17388,8 +17624,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -17408,8 +17652,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -17428,8 +17680,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -19107,9 +19367,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19127,9 +19395,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19147,9 +19423,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -19167,9 +19451,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -20866,9 +21158,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20886,9 +21186,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20906,10 +21214,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -22625,10 +22941,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -22645,10 +22969,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -24384,9 +24716,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24404,10 +24744,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -24424,10 +24772,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26143,9 +26499,21 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -26163,9 +26531,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26183,10 +26563,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFA.xlsx
@@ -7,20 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R5.01 Initiation au management " sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R5.02 PPP" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R5.03 Stratégies de communicati" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R5.A.04 Qualité algorithmique" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R5.A.05 Programmation avancée" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R5.A.06 Sensibilisation à la pr" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R5.A.07 Automatisation de la ch" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R5.A.08 Qualité de développemen" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R5.A.09 Virtualisation avancée" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R5.A.10 Nouveaux paradigmes de " sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R5.A.11 Méthodes d'optimisation" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R5.A.12 Modélisation mathématiq" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R5.A.13 Economie durable et num" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R5.A.14 Anglais de spécialité" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R5.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R5.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R5.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R5.A.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R5.A.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R5.A.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R5.A.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R5.A.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R5.A.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R5.A.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R5.A.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R5.A.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R5.A.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R5.A.14" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3284,7 +3284,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -3306,13 +3306,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -3334,16 +3334,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -3360,10 +3360,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5069,7 +5077,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5121,16 +5133,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5149,7 +5165,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B38" s="27" t="inlineStr">
@@ -5181,16 +5197,20 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+          <t>2023-12-11</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -5207,10 +5227,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -6874,7 +6902,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -6902,7 +6930,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -6930,7 +6958,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -6957,7 +6985,11 @@
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8655,15 +8687,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -8683,13 +8715,13 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -8711,13 +8743,13 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -8737,9 +8769,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -8757,9 +8797,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -8777,9 +8825,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -8797,9 +8853,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8817,9 +8881,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -10444,7 +10516,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -11482,7 +11554,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Josée VAQUIERI PORTOLANO</t>
+          <t>JosÃ©e VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -12221,7 +12293,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -12249,7 +12321,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -12277,7 +12349,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -12305,7 +12377,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -12331,10 +12403,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -12351,10 +12431,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12371,10 +12459,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -12391,10 +12487,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -12411,10 +12515,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -12431,10 +12543,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -14018,7 +14138,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -14046,7 +14166,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -15803,7 +15923,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -15831,7 +15955,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17659,7 +17787,7 @@
       </c>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>Amphi 2H</t>
+          <t>Amphi 4H</t>
         </is>
       </c>
       <c r="C38" s="27" t="n"/>
@@ -18630,7 +18758,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19375,7 +19503,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -19403,7 +19531,7 @@
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -19431,7 +19559,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -21188,16 +21316,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21216,16 +21344,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -21242,10 +21370,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -22204,7 +22340,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -22943,16 +23079,16 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -22971,16 +23107,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -22997,10 +23133,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -23017,10 +23165,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -23979,7 +24135,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -26511,7 +26667,7 @@
       </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -26543,7 +26699,7 @@
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -26565,14 +26721,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>2023-10-16</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -26591,10 +26747,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S5AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S5AFA.xlsx
@@ -5239,7 +5239,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E40" s="27" t="n"/>
+      <c r="E40" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
@@ -6990,7 +6994,11 @@
           <t>TP 2H</t>
         </is>
       </c>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -11554,7 +11562,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>JosÃ©e VAQUIERI PORTOLANO</t>
+          <t>Josée VAQUIERI PORTOLANO</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -18758,7 +18766,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19591,7 +19599,11 @@
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -22340,7 +22352,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -24135,7 +24147,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -26759,7 +26771,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
